--- a/test_ホワイトボード/已完成/test_ホワイトボード→反響表.xlsx
+++ b/test_ホワイトボード/已完成/test_ホワイトボード→反響表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4450" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="950">
   <si>
     <t>URL:</t>
   </si>
@@ -4686,8 +4686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM285"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5270,9 +5270,7 @@
       <c r="B59" s="49"/>
     </row>
     <row r="60" spans="1:75" s="48" customFormat="1" ht="14.25">
-      <c r="A60" s="55" t="s">
-        <v>158</v>
-      </c>
+      <c r="A60" s="55"/>
       <c r="B60" s="54" t="s">
         <v>505</v>
       </c>
@@ -22676,7 +22674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
